--- a/web/WEB-INF/template/Monthly_trading_detail.xlsx
+++ b/web/WEB-INF/template/Monthly_trading_detail.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="23910" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="每月交易目录" sheetId="1" r:id="rId1"/>
+    <sheet name="报表A 每月交易目录" sheetId="1" r:id="rId1"/>
+    <sheet name="报表E  每月交易目录" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
@@ -15,97 +16,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>报表A: 每月交易目录
-该报表只显示当前月的即时交易记录，为保证报表的运行速度，每月底人工备份，只保留历史2个月的纪录</t>
+该报表只显示当前月的订单信息（不包括活动明细），为保证报表的运行速度，每月底人工备份，只保留历史2个月的纪录</t>
   </si>
   <si>
     <t>订单号码</t>
   </si>
   <si>
+    <t>订购者姓名</t>
+  </si>
+  <si>
+    <t>订票数</t>
+  </si>
+  <si>
+    <t>订单金额</t>
+  </si>
+  <si>
+    <t>总折扣金额</t>
+  </si>
+  <si>
+    <t>总收入金额</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${orders}" var="order"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${order.details}" var="detail"&gt;</t>
+  </si>
+  <si>
+    <t>${order.orderNo}</t>
+  </si>
+  <si>
+    <t>${order.user.userName}</t>
+  </si>
+  <si>
+    <t>${detail.qty}</t>
+  </si>
+  <si>
+    <t>${detail.qty * detail.price}</t>
+  </si>
+  <si>
+    <t>${0 - order.couponSummary}</t>
+  </si>
+  <si>
+    <t>$[D6+E6]</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>合计：</t>
+  </si>
+  <si>
+    <t>$[SUM(E6)]</t>
+  </si>
+  <si>
+    <t>$[SUM(F6)]</t>
+  </si>
+  <si>
+    <t>报表E: 每月交易目录
+该报表只显示当前月的订单明细，其中包括订单号和活动号／名称／单价（不包括折扣信息），为保证报表的运行速度，每月底人工备份，只保留历史2个月的纪录</t>
+  </si>
+  <si>
     <t>活动号码</t>
   </si>
   <si>
     <t>活动名称</t>
   </si>
   <si>
+    <t>活动地点</t>
+  </si>
+  <si>
     <t>活动时间</t>
   </si>
   <si>
-    <t>活动地点</t>
-  </si>
-  <si>
-    <t>参加者姓名</t>
-  </si>
-  <si>
-    <t>订票数</t>
-  </si>
-  <si>
-    <t>单位价格</t>
-  </si>
-  <si>
-    <t>总折扣金额</t>
-  </si>
-  <si>
-    <t>总收入金额</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>TEXT</t>
+    <t>票价</t>
   </si>
   <si>
     <t>TIMESTAMP (DATE &amp; TIME)</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${orders}" var="order"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${order.details}" var="detail"&gt;</t>
-  </si>
-  <si>
-    <t>${order.orderNo}</t>
-  </si>
-  <si>
     <t>${detail.mfCase.caseNo}</t>
   </si>
   <si>
     <t>${detail.mfCase.title}</t>
   </si>
   <si>
+    <t>${detail.mfCase.location}</t>
+  </si>
+  <si>
     <t>${detail.mfCase.startDateStr} ${detail.mfCase.timeRange}</t>
   </si>
   <si>
-    <t>${detail.mfCase.location}</t>
-  </si>
-  <si>
-    <t>${order.user.userName}</t>
-  </si>
-  <si>
-    <t>${detail.qty}</t>
-  </si>
-  <si>
     <t>${detail.price}</t>
   </si>
   <si>
-    <t>${0 - order.couponSummary}</t>
-  </si>
-  <si>
-    <t>$[G6*H6+I6]</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>合计：</t>
+    <t>$[G6*H6]</t>
   </si>
   <si>
     <t>$[SUM(I6)]</t>
   </si>
   <si>
-    <t>$[SUM(J6)]</t>
+    <t>注：一个活动号会对应多个订单号，一个订单号也可对应多个活动号</t>
   </si>
 </sst>
 </file>
@@ -113,11 +133,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_([$¥-804]* #,##0.00_);_([$¥-804]* \(#,##0.00\);_([$¥-804]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -148,7 +168,6 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -158,14 +177,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -184,21 +223,61 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -210,62 +289,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -276,12 +301,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -310,6 +329,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,6 +419,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,85 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,25 +464,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +502,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="62"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +526,21 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -533,17 +563,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color indexed="62"/>
@@ -555,152 +574,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,10 +736,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1111,15 +1133,18 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.1666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="13" width="13.1666666666667" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1137,7 +1162,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1156,54 +1181,211 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1213,11 +1395,10 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1227,65 +1408,58 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="8"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1294,19 +1468,21 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>29</v>
+      <c r="I10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>